--- a/BUS 4.xlsx
+++ b/BUS 4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4264522ea65d2ce8/Dokumenter/NTNU/Master/Python Code/Hardcode Relrad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4264522ea65d2ce8/Dokumenter/NTNU/Master/Python Code/Git Repo/Simple-System-for-Power-System-Reliability-Calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="594" documentId="11_AD4D1D646341095ACB70008C251E688C5BDEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B13FCF6B-9839-49E8-8B0A-3DD3C8973A38}"/>
+  <xr:revisionPtr revIDLastSave="595" documentId="11_AD4D1D646341095ACB70008C251E688C5BDEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60C3E291-22A9-4BAE-8B69-CE92C074E5D4}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="188">
   <si>
     <t>Length</t>
   </si>
@@ -923,7 +923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1302,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94D1205-CDE8-4499-B343-CFE8E424627A}">
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1850,11 +1850,8 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="R20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1883,7 +1880,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1909,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1938,7 +1935,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1964,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1993,7 +1990,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2022,7 +2019,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -2048,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2077,7 +2074,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2103,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -2132,7 +2129,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -2161,7 +2158,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -3334,7 +3331,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
